--- a/media/file/cons1_processed_test1.xlsx
+++ b/media/file/cons1_processed_test1.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,330 +450,450 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>43830.03125</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mandat</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>232</v>
+        <v>0.0104166666715173</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>43830.02083333334</v>
-      </c>
-      <c r="B3" t="n">
-        <v>244</v>
-      </c>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Adresse pour Statmens</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>43830.01041666666</v>
-      </c>
-      <c r="B4" t="n">
-        <v>244</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nom_BD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CFF_Cornavin</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>43830</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ID_Compteur</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>244</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>43829.98958333334</v>
-      </c>
-      <c r="B6" t="n">
-        <v>240</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Source (Hebdo; Instant; Mens)?</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Instant</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>43829.97916666666</v>
-      </c>
-      <c r="B7" t="n">
-        <v>248</v>
-      </c>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Type d'extraction (&lt;vide&gt;; Moyenne; Somme)?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>43829.96875</v>
-      </c>
-      <c r="B8" t="n">
-        <v>240</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>numCompteurtxt</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EP549               </t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>43829.95833333334</v>
-      </c>
-      <c r="B9" t="n">
-        <v>236</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>libCompteur</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaz n° 750 69 269 - débit                                   </t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>43829.94791666666</v>
-      </c>
-      <c r="B10" t="n">
-        <v>240</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Unité</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m³/h      </t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>43829.9375</v>
-      </c>
-      <c r="B11" t="n">
-        <v>248</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Calibre</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>43829.92708333334</v>
-      </c>
-      <c r="B12" t="n">
-        <v>236</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cons1</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43829.91666666666</v>
+        <v>43830.03125</v>
       </c>
       <c r="B13" t="n">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43829.90625</v>
+        <v>43830.02083333334</v>
       </c>
       <c r="B14" t="n">
-        <v>184</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43829.89583333334</v>
+        <v>43830.01041666666</v>
       </c>
       <c r="B15" t="n">
-        <v>180</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43829.88541666666</v>
+        <v>43830</v>
       </c>
       <c r="B16" t="n">
-        <v>204</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43829.875</v>
+        <v>43829.98958333334</v>
       </c>
       <c r="B17" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43829.86458333334</v>
+        <v>43829.97916666666</v>
       </c>
       <c r="B18" t="n">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43829.85416666666</v>
+        <v>43829.96875</v>
       </c>
       <c r="B19" t="n">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43829.84375</v>
+        <v>43829.95833333334</v>
       </c>
       <c r="B20" t="n">
-        <v>200</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43829.83333333334</v>
+        <v>43829.94791666666</v>
       </c>
       <c r="B21" t="n">
-        <v>192</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43829.82291666666</v>
+        <v>43829.9375</v>
       </c>
       <c r="B22" t="n">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43829.8125</v>
+        <v>43829.92708333334</v>
       </c>
       <c r="B23" t="n">
-        <v>192</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43829.80208333334</v>
+        <v>43829.91666666666</v>
       </c>
       <c r="B24" t="n">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43829.79166666666</v>
+        <v>43829.90625</v>
       </c>
       <c r="B25" t="n">
-        <v>216</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43829.78125</v>
+        <v>43829.89583333334</v>
       </c>
       <c r="B26" t="n">
-        <v>208</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43829.77083333334</v>
+        <v>43829.88541666666</v>
       </c>
       <c r="B27" t="n">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43829.76041666666</v>
+        <v>43829.875</v>
       </c>
       <c r="B28" t="n">
-        <v>236</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43829.75</v>
+        <v>43829.86458333334</v>
       </c>
       <c r="B29" t="n">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43829.73958333334</v>
+        <v>43829.85416666666</v>
       </c>
       <c r="B30" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43829.72916666666</v>
+        <v>43829.84375</v>
       </c>
       <c r="B31" t="n">
-        <v>232</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43829.71875</v>
+        <v>43829.83333333334</v>
       </c>
       <c r="B32" t="n">
-        <v>232</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43829.70833333334</v>
+        <v>43829.82291666666</v>
       </c>
       <c r="B33" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43829.69791666666</v>
+        <v>43829.8125</v>
       </c>
       <c r="B34" t="n">
-        <v>252</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43829.6875</v>
+        <v>43829.80208333334</v>
       </c>
       <c r="B35" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43829.67708333334</v>
+        <v>43829.79166666666</v>
       </c>
       <c r="B36" t="n">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43829.66666666666</v>
+        <v>43829.78125</v>
       </c>
       <c r="B37" t="n">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43829.65625</v>
+        <v>43829.77083333334</v>
       </c>
       <c r="B38" t="n">
-        <v>276</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43829.64583333334</v>
+        <v>43829.76041666666</v>
       </c>
       <c r="B39" t="n">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43829.63541666666</v>
+        <v>43829.75</v>
       </c>
       <c r="B40" t="n">
-        <v>264</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43829.625</v>
+        <v>43829.73958333334</v>
       </c>
       <c r="B41" t="n">
-        <v>316</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
+        <v>43829.72916666666</v>
+      </c>
+      <c r="B42" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>43829.71875</v>
+      </c>
+      <c r="B43" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>43829.70833333334</v>
+      </c>
+      <c r="B44" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43829.69791666666</v>
+      </c>
+      <c r="B45" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>43829.6875</v>
+      </c>
+      <c r="B46" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>43829.67708333334</v>
+      </c>
+      <c r="B47" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>43829.66666666666</v>
+      </c>
+      <c r="B48" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>43829.65625</v>
+      </c>
+      <c r="B49" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>43829.64583333334</v>
+      </c>
+      <c r="B50" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>43829.63541666666</v>
+      </c>
+      <c r="B51" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>43829.625</v>
+      </c>
+      <c r="B52" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>43829.61458333334</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B53" t="n">
         <v>296</v>
       </c>
     </row>
